--- a/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_4_202306_symptomes.xlsx
+++ b/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_4_202306_symptomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3176C53F-A1E1-4325-93A9-51B247A17CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D858184-2513-4426-B578-E5C30031877C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="535">
   <si>
     <t>form_title</t>
   </si>
@@ -254,31 +254,19 @@
     <t>eruption_place</t>
   </si>
   <si>
-    <t>Si oui, sur quelle partie du corps se trouve l'éruption ?</t>
-  </si>
-  <si>
     <t>select_multiple eruption_place</t>
   </si>
   <si>
-    <t>Veuillez préciser les autres place de l'éruption</t>
-  </si>
-  <si>
     <t>Autre</t>
   </si>
   <si>
     <t>1) b) L'éruption cutanée provoque-t-elle des démangeaisons ?</t>
   </si>
   <si>
-    <t>Si oui, où se situe la démangeaison? (Cocher la case appropriée) :</t>
-  </si>
-  <si>
     <t>Veuillez préciser les autres place des démangeasons</t>
   </si>
   <si>
     <t>2) Y a-t-il sur la peau des boutons de moins de 5 mm ?</t>
-  </si>
-  <si>
-    <t>Si oui, sur quelle partie du corps se trouvent les boutons ? (Cocher la case appropriée) :</t>
   </si>
   <si>
     <t>Veuillez préciser les autres place où se trouve les boutons</t>
@@ -1640,6 +1628,24 @@
   </si>
   <si>
     <t>Entrer l'identifiant de l'infirmier</t>
+  </si>
+  <si>
+    <t>Si oui, sur quelles parties du corps se trouve l'éruption ?</t>
+  </si>
+  <si>
+    <t>Veuillez préciser les autres places de l'éruption</t>
+  </si>
+  <si>
+    <t>Si oui, où se situe la démangeaison? (Cocher les cases appropriées) :</t>
+  </si>
+  <si>
+    <t>yes_no_nk</t>
+  </si>
+  <si>
+    <t>select_one yes_no_nk</t>
+  </si>
+  <si>
+    <t>Si oui, sur quelles parties du corps se trouvent les boutons ? (Cocher les cases appropriées) :</t>
   </si>
 </sst>
 </file>
@@ -2167,10 +2173,10 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2232,10 +2238,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
@@ -2257,10 +2263,10 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>26</v>
@@ -2279,10 +2285,10 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>32</v>
@@ -2298,15 +2304,15 @@
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>46</v>
@@ -2322,7 +2328,7 @@
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2330,7 +2336,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>37</v>
@@ -2349,20 +2355,20 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="6"/>
       <c r="G7" s="13"/>
       <c r="H7" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="6" t="s">
@@ -2376,7 +2382,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>47</v>
@@ -2386,7 +2392,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="13"/>
       <c r="H8" s="28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="6" t="s">
@@ -2400,7 +2406,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>47</v>
@@ -2410,7 +2416,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="13"/>
       <c r="H9" s="28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="6" t="s">
@@ -2424,17 +2430,17 @@
         <v>33</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="37"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
       <c r="H10" s="38" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I10" s="37"/>
       <c r="J10" s="36"/>
@@ -2446,7 +2452,7 @@
         <v>45</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>48</v>
@@ -2456,7 +2462,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="13"/>
       <c r="H11" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="6" t="s">
@@ -2470,7 +2476,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>49</v>
@@ -2480,7 +2486,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="13"/>
       <c r="H12" s="28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="6" t="s">
@@ -2494,7 +2500,7 @@
         <v>45</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>56</v>
@@ -2504,7 +2510,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="13"/>
       <c r="H13" s="28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="6" t="s">
@@ -2518,7 +2524,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>57</v>
@@ -2528,7 +2534,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="13"/>
       <c r="H14" s="28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="6" t="s">
@@ -2542,7 +2548,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>58</v>
@@ -2552,7 +2558,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="13"/>
       <c r="H15" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="6" t="s">
@@ -2566,7 +2572,7 @@
         <v>45</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>59</v>
@@ -2576,7 +2582,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="13"/>
       <c r="H16" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="6" t="s">
@@ -2590,7 +2596,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>60</v>
@@ -2600,7 +2606,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="13"/>
       <c r="H17" s="28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="6" t="s">
@@ -2614,7 +2620,7 @@
         <v>45</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>61</v>
@@ -2624,7 +2630,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="13"/>
       <c r="H18" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="6" t="s">
@@ -2638,17 +2644,17 @@
         <v>33</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="37"/>
       <c r="F19" s="36"/>
       <c r="G19" s="37"/>
       <c r="H19" s="38" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I19" s="37"/>
       <c r="J19" s="36"/>
@@ -2660,7 +2666,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>62</v>
@@ -2670,7 +2676,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="13"/>
       <c r="H20" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="25" t="s">
@@ -2681,20 +2687,20 @@
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>71</v>
+        <v>529</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
       <c r="F21" s="6"/>
       <c r="G21" s="13"/>
       <c r="H21" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="25" t="s">
@@ -2708,17 +2714,17 @@
         <v>20</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>73</v>
+        <v>530</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
       <c r="F22" s="6"/>
       <c r="G22" s="13"/>
       <c r="H22" s="29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="25" t="s">
@@ -2732,17 +2738,17 @@
         <v>45</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
       <c r="F23" s="6"/>
       <c r="G23" s="13"/>
       <c r="H23" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="6" t="s">
@@ -2753,20 +2759,20 @@
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>76</v>
+        <v>531</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
       <c r="F24" s="6"/>
       <c r="G24" s="13"/>
       <c r="H24" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="6" t="s">
@@ -2780,17 +2786,17 @@
         <v>20</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="6"/>
       <c r="G25" s="13"/>
       <c r="H25" s="28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="6" t="s">
@@ -2801,20 +2807,20 @@
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>45</v>
+        <v>533</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="6"/>
       <c r="G26" s="13"/>
       <c r="H26" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="25" t="s">
@@ -2825,20 +2831,20 @@
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="6"/>
       <c r="G27" s="13"/>
       <c r="H27" s="29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I27" s="24"/>
       <c r="J27" s="25" t="s">
@@ -2852,17 +2858,17 @@
         <v>20</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="6"/>
       <c r="G28" s="13"/>
       <c r="H28" s="29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I28" s="24"/>
       <c r="J28" s="25" t="s">
@@ -2876,17 +2882,17 @@
         <v>45</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="6"/>
       <c r="G29" s="13"/>
       <c r="H29" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="6" t="s">
@@ -2897,20 +2903,20 @@
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="6"/>
       <c r="G30" s="13"/>
       <c r="H30" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="6" t="s">
@@ -2924,17 +2930,17 @@
         <v>20</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
       <c r="F31" s="6"/>
       <c r="G31" s="13"/>
       <c r="H31" s="28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="6" t="s">
@@ -2948,17 +2954,17 @@
         <v>45</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="F32" s="6"/>
       <c r="G32" s="13"/>
       <c r="H32" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="25" t="s">
@@ -2969,20 +2975,20 @@
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="6"/>
       <c r="G33" s="13"/>
       <c r="H33" s="29" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I33" s="24"/>
       <c r="J33" s="25" t="s">
@@ -2996,17 +3002,17 @@
         <v>20</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
       <c r="F34" s="6"/>
       <c r="G34" s="13"/>
       <c r="H34" s="29" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I34" s="24"/>
       <c r="J34" s="25" t="s">
@@ -3020,19 +3026,19 @@
         <v>45</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="6"/>
       <c r="G35" s="13"/>
       <c r="H35" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="6" t="s">
@@ -3043,20 +3049,20 @@
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
       <c r="F36" s="6"/>
       <c r="G36" s="13"/>
       <c r="H36" s="28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="6" t="s">
@@ -3070,17 +3076,17 @@
         <v>20</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
       <c r="F37" s="6"/>
       <c r="G37" s="13"/>
       <c r="H37" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="6" t="s">
@@ -3094,19 +3100,19 @@
         <v>45</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="6"/>
       <c r="G38" s="13"/>
       <c r="H38" s="29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="25" t="s">
@@ -3117,20 +3123,20 @@
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="6"/>
       <c r="G39" s="13"/>
       <c r="H39" s="29" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="25" t="s">
@@ -3144,17 +3150,17 @@
         <v>20</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="6"/>
       <c r="G40" s="13"/>
       <c r="H40" s="29" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="25" t="s">
@@ -3168,19 +3174,19 @@
         <v>15</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="6"/>
       <c r="G41" s="13"/>
       <c r="H41" s="28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="6" t="s">
@@ -3194,17 +3200,17 @@
         <v>45</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
       <c r="F42" s="6"/>
       <c r="G42" s="13"/>
       <c r="H42" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="25" t="s">
@@ -3215,20 +3221,20 @@
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
       <c r="F43" s="6"/>
       <c r="G43" s="13"/>
       <c r="H43" s="29" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="25" t="s">
@@ -3242,17 +3248,17 @@
         <v>20</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
       <c r="F44" s="6"/>
       <c r="G44" s="13"/>
       <c r="H44" s="29" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I44" s="24"/>
       <c r="J44" s="25" t="s">
@@ -3266,17 +3272,17 @@
         <v>45</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
       <c r="F45" s="6"/>
       <c r="G45" s="13"/>
       <c r="H45" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="6" t="s">
@@ -3287,20 +3293,20 @@
     </row>
     <row r="46" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
       <c r="F46" s="6"/>
       <c r="G46" s="13"/>
       <c r="H46" s="31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="33" t="s">
@@ -3314,17 +3320,17 @@
         <v>20</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="10"/>
       <c r="F47" s="6"/>
       <c r="G47" s="13"/>
       <c r="H47" s="31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="33" t="s">
@@ -3338,17 +3344,17 @@
         <v>45</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="10"/>
       <c r="F48" s="6"/>
       <c r="G48" s="13"/>
       <c r="H48" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="6" t="s">
@@ -3359,20 +3365,20 @@
     </row>
     <row r="49" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
       <c r="F49" s="6"/>
       <c r="G49" s="13"/>
       <c r="H49" s="29" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I49" s="24"/>
       <c r="J49" s="25" t="s">
@@ -3386,17 +3392,17 @@
         <v>20</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="10"/>
       <c r="F50" s="6"/>
       <c r="G50" s="13"/>
       <c r="H50" s="29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I50" s="24"/>
       <c r="J50" s="25" t="s">
@@ -3410,10 +3416,10 @@
         <v>20</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="10"/>
@@ -3444,7 +3450,7 @@
         <v>21</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -3462,7 +3468,7 @@
         <v>22</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -3498,11 +3504,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F377"/>
+  <dimension ref="A1:F380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD377"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3646,13 +3652,13 @@
     </row>
     <row r="10" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>50</v>
+        <v>532</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -3660,13 +3666,13 @@
     </row>
     <row r="11" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>50</v>
+        <v>532</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3674,13 +3680,13 @@
     </row>
     <row r="12" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>532</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3691,10 +3697,10 @@
         <v>50</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3702,13 +3708,13 @@
     </row>
     <row r="14" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3716,13 +3722,13 @@
     </row>
     <row r="15" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -3730,13 +3736,13 @@
     </row>
     <row r="16" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3747,10 +3753,10 @@
         <v>70</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -3761,10 +3767,10 @@
         <v>70</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -3775,10 +3781,10 @@
         <v>70</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -3789,10 +3795,10 @@
         <v>70</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -3803,10 +3809,10 @@
         <v>70</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -3814,13 +3820,13 @@
     </row>
     <row r="22" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -3828,35 +3834,41 @@
     </row>
     <row r="23" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -3864,28 +3876,22 @@
     </row>
     <row r="26" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>193</v>
-      </c>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -3895,10 +3901,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3909,68 +3915,62 @@
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>191</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" s="20" t="s">
         <v>191</v>
       </c>
+      <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>191</v>
-      </c>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
     </row>
@@ -3979,13 +3979,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -3995,13 +3995,13 @@
         <v>17</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -4011,13 +4011,13 @@
         <v>17</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -4027,13 +4027,13 @@
         <v>17</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
@@ -4043,13 +4043,13 @@
         <v>17</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
@@ -4059,13 +4059,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -4075,77 +4075,77 @@
         <v>17</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E41" s="20"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E42" s="20"/>
-      <c r="F42" s="19"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E43" s="20"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="20"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="19"/>
@@ -4155,13 +4155,13 @@
         <v>17</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="19"/>
@@ -4171,13 +4171,13 @@
         <v>17</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="19"/>
@@ -4187,13 +4187,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="19"/>
@@ -4203,13 +4203,13 @@
         <v>17</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="19"/>
@@ -4219,13 +4219,13 @@
         <v>17</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="19"/>
@@ -4235,13 +4235,13 @@
         <v>17</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="19"/>
@@ -4251,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="19"/>
@@ -4267,13 +4267,13 @@
         <v>17</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="19"/>
@@ -4283,13 +4283,13 @@
         <v>17</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="19"/>
@@ -4299,13 +4299,13 @@
         <v>17</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="19"/>
@@ -4315,13 +4315,13 @@
         <v>17</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="19"/>
@@ -4331,13 +4331,13 @@
         <v>17</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="19"/>
@@ -4347,13 +4347,13 @@
         <v>17</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="19"/>
@@ -4363,13 +4363,13 @@
         <v>17</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="19"/>
@@ -4379,13 +4379,13 @@
         <v>17</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="19"/>
@@ -4395,13 +4395,13 @@
         <v>17</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="19"/>
@@ -4411,13 +4411,13 @@
         <v>17</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="19"/>
@@ -4427,13 +4427,13 @@
         <v>17</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="19"/>
@@ -4443,13 +4443,13 @@
         <v>17</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="19"/>
@@ -4459,71 +4459,71 @@
         <v>17</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="19"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="20"/>
+      <c r="A65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>191</v>
+      </c>
       <c r="E65" s="20"/>
       <c r="F65" s="19"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20" t="s">
-        <v>212</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="20"/>
       <c r="F66" s="19"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20" t="s">
-        <v>212</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="20"/>
       <c r="F67" s="19"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>228</v>
-      </c>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="20"/>
-      <c r="E68" s="20" t="s">
-        <v>212</v>
-      </c>
+      <c r="E68" s="20"/>
       <c r="F68" s="19"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4531,71 +4531,77 @@
         <v>27</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F69" s="19"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" t="s">
-        <v>230</v>
-      </c>
-      <c r="C70" t="s">
-        <v>230</v>
-      </c>
-      <c r="E70" t="s">
-        <v>212</v>
-      </c>
+      <c r="A70" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F70" s="19"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71" t="s">
-        <v>231</v>
-      </c>
-      <c r="C71" t="s">
-        <v>231</v>
-      </c>
-      <c r="E71" t="s">
-        <v>212</v>
-      </c>
+      <c r="A71" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F71" s="19"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" t="s">
-        <v>232</v>
-      </c>
-      <c r="C72" t="s">
-        <v>232</v>
-      </c>
-      <c r="E72" t="s">
-        <v>212</v>
-      </c>
+      <c r="A72" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" s="19"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C73" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E73" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4603,13 +4609,13 @@
         <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C74" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E74" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4617,13 +4623,13 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C75" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E75" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4631,13 +4637,13 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C76" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E76" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4645,13 +4651,13 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C77" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E77" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4659,13 +4665,13 @@
         <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E78" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4673,13 +4679,13 @@
         <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C79" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E79" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4687,13 +4693,13 @@
         <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C80" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E80" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4701,13 +4707,13 @@
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C81" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E81" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4715,13 +4721,13 @@
         <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E82" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4729,13 +4735,13 @@
         <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C83" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E83" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4743,13 +4749,13 @@
         <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C84" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E84" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4757,13 +4763,13 @@
         <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C85" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E85" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4771,13 +4777,13 @@
         <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C86" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="E86" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4785,13 +4791,13 @@
         <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="E87" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4799,13 +4805,13 @@
         <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C88" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E88" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4813,13 +4819,13 @@
         <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C89" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E89" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4827,13 +4833,13 @@
         <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="C90" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="E90" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4841,13 +4847,13 @@
         <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C91" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E91" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4855,13 +4861,13 @@
         <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E92" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4869,13 +4875,13 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C93" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E93" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4883,13 +4889,13 @@
         <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C94" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E94" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4897,13 +4903,13 @@
         <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C95" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E95" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4911,13 +4917,13 @@
         <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C96" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E96" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4925,13 +4931,13 @@
         <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C97" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E97" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4939,13 +4945,13 @@
         <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C98" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E98" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4953,13 +4959,13 @@
         <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C99" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E99" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4967,13 +4973,13 @@
         <v>27</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C100" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E100" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4981,13 +4987,13 @@
         <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C101" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E101" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4995,13 +5001,13 @@
         <v>27</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C102" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E102" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -5009,13 +5015,13 @@
         <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C103" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E103" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -5023,13 +5029,13 @@
         <v>27</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C104" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E104" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -5037,13 +5043,13 @@
         <v>27</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C105" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -5051,13 +5057,13 @@
         <v>27</v>
       </c>
       <c r="B106" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C106" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5065,13 +5071,13 @@
         <v>27</v>
       </c>
       <c r="B107" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5079,13 +5085,13 @@
         <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C108" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -5093,13 +5099,13 @@
         <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C109" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5107,13 +5113,13 @@
         <v>27</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C110" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5121,13 +5127,13 @@
         <v>27</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C111" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5135,13 +5141,13 @@
         <v>27</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C112" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E112" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5149,13 +5155,13 @@
         <v>27</v>
       </c>
       <c r="B113" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C113" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -5163,13 +5169,13 @@
         <v>27</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C114" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E114" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5177,13 +5183,13 @@
         <v>27</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C115" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E115" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5191,13 +5197,13 @@
         <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C116" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E116" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5205,13 +5211,13 @@
         <v>27</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C117" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E117" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5219,13 +5225,13 @@
         <v>27</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C118" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E118" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -5233,13 +5239,13 @@
         <v>27</v>
       </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C119" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E119" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5247,13 +5253,13 @@
         <v>27</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C120" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E120" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5261,13 +5267,13 @@
         <v>27</v>
       </c>
       <c r="B121" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C121" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E121" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5275,13 +5281,13 @@
         <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C122" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E122" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5289,13 +5295,13 @@
         <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C123" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E123" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -5303,13 +5309,13 @@
         <v>27</v>
       </c>
       <c r="B124" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C124" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E124" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -5317,13 +5323,13 @@
         <v>27</v>
       </c>
       <c r="B125" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C125" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E125" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5331,13 +5337,13 @@
         <v>27</v>
       </c>
       <c r="B126" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C126" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E126" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -5345,13 +5351,13 @@
         <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C127" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E127" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -5359,13 +5365,13 @@
         <v>27</v>
       </c>
       <c r="B128" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C128" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E128" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5373,13 +5379,13 @@
         <v>27</v>
       </c>
       <c r="B129" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C129" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E129" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -5387,13 +5393,13 @@
         <v>27</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C130" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E130" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -5401,13 +5407,13 @@
         <v>27</v>
       </c>
       <c r="B131" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C131" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E131" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -5415,13 +5421,13 @@
         <v>27</v>
       </c>
       <c r="B132" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C132" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E132" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -5429,13 +5435,13 @@
         <v>27</v>
       </c>
       <c r="B133" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C133" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E133" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -5443,13 +5449,13 @@
         <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C134" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E134" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -5457,13 +5463,13 @@
         <v>27</v>
       </c>
       <c r="B135" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C135" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E135" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -5471,13 +5477,13 @@
         <v>27</v>
       </c>
       <c r="B136" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C136" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E136" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -5485,13 +5491,13 @@
         <v>27</v>
       </c>
       <c r="B137" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C137" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E137" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5499,13 +5505,13 @@
         <v>27</v>
       </c>
       <c r="B138" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C138" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E138" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -5513,13 +5519,13 @@
         <v>27</v>
       </c>
       <c r="B139" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C139" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E139" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -5527,13 +5533,13 @@
         <v>27</v>
       </c>
       <c r="B140" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C140" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E140" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -5541,13 +5547,13 @@
         <v>27</v>
       </c>
       <c r="B141" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C141" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E141" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -5555,13 +5561,13 @@
         <v>27</v>
       </c>
       <c r="B142" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C142" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E142" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -5569,13 +5575,13 @@
         <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E143" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -5583,13 +5589,13 @@
         <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C144" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E144" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -5597,13 +5603,13 @@
         <v>27</v>
       </c>
       <c r="B145" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C145" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E145" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -5611,13 +5617,13 @@
         <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C146" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E146" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -5625,13 +5631,13 @@
         <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C147" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E147" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -5639,13 +5645,13 @@
         <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C148" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E148" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -5653,13 +5659,13 @@
         <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C149" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E149" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -5667,13 +5673,13 @@
         <v>27</v>
       </c>
       <c r="B150" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C150" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E150" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -5681,13 +5687,13 @@
         <v>27</v>
       </c>
       <c r="B151" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C151" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E151" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -5695,13 +5701,13 @@
         <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C152" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E152" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5709,13 +5715,13 @@
         <v>27</v>
       </c>
       <c r="B153" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C153" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E153" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -5723,13 +5729,13 @@
         <v>27</v>
       </c>
       <c r="B154" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C154" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E154" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5737,13 +5743,13 @@
         <v>27</v>
       </c>
       <c r="B155" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C155" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E155" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -5751,13 +5757,13 @@
         <v>27</v>
       </c>
       <c r="B156" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C156" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E156" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5765,13 +5771,13 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C157" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E157" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5779,13 +5785,13 @@
         <v>27</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C158" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E158" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5793,13 +5799,13 @@
         <v>27</v>
       </c>
       <c r="B159" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C159" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E159" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -5807,13 +5813,13 @@
         <v>27</v>
       </c>
       <c r="B160" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C160" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E160" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5821,13 +5827,13 @@
         <v>27</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C161" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E161" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -5835,13 +5841,13 @@
         <v>27</v>
       </c>
       <c r="B162" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C162" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E162" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5849,13 +5855,13 @@
         <v>27</v>
       </c>
       <c r="B163" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C163" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E163" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5863,13 +5869,13 @@
         <v>27</v>
       </c>
       <c r="B164" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C164" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E164" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5877,13 +5883,13 @@
         <v>27</v>
       </c>
       <c r="B165" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C165" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E165" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5891,13 +5897,13 @@
         <v>27</v>
       </c>
       <c r="B166" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C166" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E166" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -5905,13 +5911,13 @@
         <v>27</v>
       </c>
       <c r="B167" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C167" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E167" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5919,13 +5925,13 @@
         <v>27</v>
       </c>
       <c r="B168" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C168" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E168" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -5933,13 +5939,13 @@
         <v>27</v>
       </c>
       <c r="B169" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C169" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E169" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -5947,13 +5953,13 @@
         <v>27</v>
       </c>
       <c r="B170" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C170" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E170" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5961,13 +5967,13 @@
         <v>27</v>
       </c>
       <c r="B171" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C171" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E171" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -5975,13 +5981,13 @@
         <v>27</v>
       </c>
       <c r="B172" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C172" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E172" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -5989,13 +5995,13 @@
         <v>27</v>
       </c>
       <c r="B173" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="C173" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="E173" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -6003,13 +6009,13 @@
         <v>27</v>
       </c>
       <c r="B174" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C174" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E174" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -6017,13 +6023,13 @@
         <v>27</v>
       </c>
       <c r="B175" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C175" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E175" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -6031,13 +6037,13 @@
         <v>27</v>
       </c>
       <c r="B176" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="C176" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="E176" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -6045,13 +6051,13 @@
         <v>27</v>
       </c>
       <c r="B177" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C177" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E177" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -6059,13 +6065,13 @@
         <v>27</v>
       </c>
       <c r="B178" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C178" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E178" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -6073,13 +6079,13 @@
         <v>27</v>
       </c>
       <c r="B179" t="s">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="C179" t="s">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="E179" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -6087,13 +6093,13 @@
         <v>27</v>
       </c>
       <c r="B180" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C180" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E180" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -6101,13 +6107,13 @@
         <v>27</v>
       </c>
       <c r="B181" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C181" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E181" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -6115,13 +6121,13 @@
         <v>27</v>
       </c>
       <c r="B182" t="s">
-        <v>338</v>
+        <v>196</v>
       </c>
       <c r="C182" t="s">
-        <v>338</v>
+        <v>196</v>
       </c>
       <c r="E182" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -6129,13 +6135,13 @@
         <v>27</v>
       </c>
       <c r="B183" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C183" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E183" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -6143,13 +6149,13 @@
         <v>27</v>
       </c>
       <c r="B184" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C184" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E184" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -6157,13 +6163,13 @@
         <v>27</v>
       </c>
       <c r="B185" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C185" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E185" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -6171,13 +6177,13 @@
         <v>27</v>
       </c>
       <c r="B186" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C186" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E186" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -6185,13 +6191,13 @@
         <v>27</v>
       </c>
       <c r="B187" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C187" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E187" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -6199,13 +6205,13 @@
         <v>27</v>
       </c>
       <c r="B188" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C188" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E188" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -6213,13 +6219,13 @@
         <v>27</v>
       </c>
       <c r="B189" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C189" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E189" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -6227,13 +6233,13 @@
         <v>27</v>
       </c>
       <c r="B190" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C190" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E190" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -6241,13 +6247,13 @@
         <v>27</v>
       </c>
       <c r="B191" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C191" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E191" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -6255,13 +6261,13 @@
         <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C192" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E192" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -6269,13 +6275,13 @@
         <v>27</v>
       </c>
       <c r="B193" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C193" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E193" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -6283,13 +6289,13 @@
         <v>27</v>
       </c>
       <c r="B194" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C194" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E194" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -6297,13 +6303,13 @@
         <v>27</v>
       </c>
       <c r="B195" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C195" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E195" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -6311,13 +6317,13 @@
         <v>27</v>
       </c>
       <c r="B196" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C196" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E196" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -6325,13 +6331,13 @@
         <v>27</v>
       </c>
       <c r="B197" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C197" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E197" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -6339,13 +6345,13 @@
         <v>27</v>
       </c>
       <c r="B198" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C198" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E198" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -6353,13 +6359,13 @@
         <v>27</v>
       </c>
       <c r="B199" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C199" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E199" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -6367,13 +6373,13 @@
         <v>27</v>
       </c>
       <c r="B200" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C200" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E200" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -6381,13 +6387,13 @@
         <v>27</v>
       </c>
       <c r="B201" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C201" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E201" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -6395,13 +6401,13 @@
         <v>27</v>
       </c>
       <c r="B202" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C202" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E202" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -6409,13 +6415,13 @@
         <v>27</v>
       </c>
       <c r="B203" t="s">
-        <v>223</v>
+        <v>352</v>
       </c>
       <c r="C203" t="s">
-        <v>223</v>
+        <v>352</v>
       </c>
       <c r="E203" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -6423,13 +6429,13 @@
         <v>27</v>
       </c>
       <c r="B204" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C204" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E204" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -6437,13 +6443,13 @@
         <v>27</v>
       </c>
       <c r="B205" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C205" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E205" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -6451,13 +6457,13 @@
         <v>27</v>
       </c>
       <c r="B206" t="s">
-        <v>361</v>
+        <v>219</v>
       </c>
       <c r="C206" t="s">
-        <v>361</v>
+        <v>219</v>
       </c>
       <c r="E206" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -6465,13 +6471,13 @@
         <v>27</v>
       </c>
       <c r="B207" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C207" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E207" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -6479,13 +6485,13 @@
         <v>27</v>
       </c>
       <c r="B208" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C208" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E208" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -6493,13 +6499,13 @@
         <v>27</v>
       </c>
       <c r="B209" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C209" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E209" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -6507,13 +6513,13 @@
         <v>27</v>
       </c>
       <c r="B210" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C210" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E210" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -6521,13 +6527,13 @@
         <v>27</v>
       </c>
       <c r="B211" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C211" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E211" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -6535,13 +6541,13 @@
         <v>27</v>
       </c>
       <c r="B212" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C212" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E212" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -6549,13 +6555,13 @@
         <v>27</v>
       </c>
       <c r="B213" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C213" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E213" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -6563,13 +6569,13 @@
         <v>27</v>
       </c>
       <c r="B214" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C214" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E214" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -6577,13 +6583,13 @@
         <v>27</v>
       </c>
       <c r="B215" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C215" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E215" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -6591,13 +6597,13 @@
         <v>27</v>
       </c>
       <c r="B216" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C216" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E216" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -6605,13 +6611,13 @@
         <v>27</v>
       </c>
       <c r="B217" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C217" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E217" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -6619,13 +6625,13 @@
         <v>27</v>
       </c>
       <c r="B218" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C218" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E218" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -6633,13 +6639,13 @@
         <v>27</v>
       </c>
       <c r="B219" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C219" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E219" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -6647,13 +6653,13 @@
         <v>27</v>
       </c>
       <c r="B220" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C220" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E220" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -6661,13 +6667,13 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C221" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E221" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -6675,13 +6681,13 @@
         <v>27</v>
       </c>
       <c r="B222" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C222" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E222" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -6689,13 +6695,13 @@
         <v>27</v>
       </c>
       <c r="B223" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C223" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E223" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -6703,13 +6709,13 @@
         <v>27</v>
       </c>
       <c r="B224" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C224" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E224" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -6717,13 +6723,13 @@
         <v>27</v>
       </c>
       <c r="B225" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C225" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E225" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -6731,13 +6737,13 @@
         <v>27</v>
       </c>
       <c r="B226" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C226" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E226" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -6745,13 +6751,13 @@
         <v>27</v>
       </c>
       <c r="B227" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C227" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E227" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6759,13 +6765,13 @@
         <v>27</v>
       </c>
       <c r="B228" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C228" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E228" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6773,13 +6779,13 @@
         <v>27</v>
       </c>
       <c r="B229" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C229" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E229" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6787,13 +6793,13 @@
         <v>27</v>
       </c>
       <c r="B230" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C230" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E230" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -6801,13 +6807,13 @@
         <v>27</v>
       </c>
       <c r="B231" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C231" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E231" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6815,13 +6821,13 @@
         <v>27</v>
       </c>
       <c r="B232" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C232" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E232" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -6829,13 +6835,13 @@
         <v>27</v>
       </c>
       <c r="B233" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C233" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E233" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -6843,13 +6849,13 @@
         <v>27</v>
       </c>
       <c r="B234" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C234" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E234" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6857,13 +6863,13 @@
         <v>27</v>
       </c>
       <c r="B235" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C235" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E235" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -6871,13 +6877,13 @@
         <v>27</v>
       </c>
       <c r="B236" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C236" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E236" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6885,13 +6891,13 @@
         <v>27</v>
       </c>
       <c r="B237" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C237" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E237" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6899,13 +6905,13 @@
         <v>27</v>
       </c>
       <c r="B238" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C238" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E238" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6913,13 +6919,13 @@
         <v>27</v>
       </c>
       <c r="B239" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C239" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E239" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6927,13 +6933,13 @@
         <v>27</v>
       </c>
       <c r="B240" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C240" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E240" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -6941,13 +6947,13 @@
         <v>27</v>
       </c>
       <c r="B241" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C241" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E241" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6955,13 +6961,13 @@
         <v>27</v>
       </c>
       <c r="B242" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C242" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E242" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6969,13 +6975,13 @@
         <v>27</v>
       </c>
       <c r="B243" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C243" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E243" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6983,13 +6989,13 @@
         <v>27</v>
       </c>
       <c r="B244" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C244" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E244" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6997,13 +7003,13 @@
         <v>27</v>
       </c>
       <c r="B245" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C245" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E245" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -7011,13 +7017,13 @@
         <v>27</v>
       </c>
       <c r="B246" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C246" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E246" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -7025,13 +7031,13 @@
         <v>27</v>
       </c>
       <c r="B247" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C247" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E247" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -7039,13 +7045,13 @@
         <v>27</v>
       </c>
       <c r="B248" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C248" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E248" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -7053,13 +7059,13 @@
         <v>27</v>
       </c>
       <c r="B249" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C249" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E249" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -7067,13 +7073,13 @@
         <v>27</v>
       </c>
       <c r="B250" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C250" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E250" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -7081,13 +7087,13 @@
         <v>27</v>
       </c>
       <c r="B251" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C251" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E251" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -7095,13 +7101,13 @@
         <v>27</v>
       </c>
       <c r="B252" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C252" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E252" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -7109,13 +7115,13 @@
         <v>27</v>
       </c>
       <c r="B253" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C253" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E253" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -7123,13 +7129,13 @@
         <v>27</v>
       </c>
       <c r="B254" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C254" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E254" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -7137,13 +7143,13 @@
         <v>27</v>
       </c>
       <c r="B255" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C255" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E255" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -7151,13 +7157,13 @@
         <v>27</v>
       </c>
       <c r="B256" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C256" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E256" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -7165,13 +7171,13 @@
         <v>27</v>
       </c>
       <c r="B257" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C257" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E257" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -7179,13 +7185,13 @@
         <v>27</v>
       </c>
       <c r="B258" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C258" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E258" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -7193,13 +7199,13 @@
         <v>27</v>
       </c>
       <c r="B259" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C259" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E259" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -7207,13 +7213,13 @@
         <v>27</v>
       </c>
       <c r="B260" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C260" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E260" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -7221,13 +7227,13 @@
         <v>27</v>
       </c>
       <c r="B261" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C261" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E261" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -7235,13 +7241,13 @@
         <v>27</v>
       </c>
       <c r="B262" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C262" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E262" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -7249,13 +7255,13 @@
         <v>27</v>
       </c>
       <c r="B263" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C263" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E263" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -7263,13 +7269,13 @@
         <v>27</v>
       </c>
       <c r="B264" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C264" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E264" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -7277,13 +7283,13 @@
         <v>27</v>
       </c>
       <c r="B265" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C265" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E265" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -7291,13 +7297,13 @@
         <v>27</v>
       </c>
       <c r="B266" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C266" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E266" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -7305,13 +7311,13 @@
         <v>27</v>
       </c>
       <c r="B267" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C267" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E267" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -7319,13 +7325,13 @@
         <v>27</v>
       </c>
       <c r="B268" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C268" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E268" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -7333,13 +7339,13 @@
         <v>27</v>
       </c>
       <c r="B269" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C269" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E269" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -7347,13 +7353,13 @@
         <v>27</v>
       </c>
       <c r="B270" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C270" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E270" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -7361,13 +7367,13 @@
         <v>27</v>
       </c>
       <c r="B271" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C271" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E271" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -7375,13 +7381,13 @@
         <v>27</v>
       </c>
       <c r="B272" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C272" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E272" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -7389,13 +7395,13 @@
         <v>27</v>
       </c>
       <c r="B273" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C273" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E273" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -7403,13 +7409,13 @@
         <v>27</v>
       </c>
       <c r="B274" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C274" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E274" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -7417,13 +7423,13 @@
         <v>27</v>
       </c>
       <c r="B275" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C275" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E275" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -7431,13 +7437,13 @@
         <v>27</v>
       </c>
       <c r="B276" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C276" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E276" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -7445,13 +7451,13 @@
         <v>27</v>
       </c>
       <c r="B277" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C277" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E277" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -7459,13 +7465,13 @@
         <v>27</v>
       </c>
       <c r="B278" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C278" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E278" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -7473,13 +7479,13 @@
         <v>27</v>
       </c>
       <c r="B279" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C279" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E279" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -7487,13 +7493,13 @@
         <v>27</v>
       </c>
       <c r="B280" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C280" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E280" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -7501,13 +7507,13 @@
         <v>27</v>
       </c>
       <c r="B281" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C281" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E281" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -7515,13 +7521,13 @@
         <v>27</v>
       </c>
       <c r="B282" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C282" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E282" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -7529,13 +7535,13 @@
         <v>27</v>
       </c>
       <c r="B283" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C283" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E283" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -7543,13 +7549,13 @@
         <v>27</v>
       </c>
       <c r="B284" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C284" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E284" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -7557,13 +7563,13 @@
         <v>27</v>
       </c>
       <c r="B285" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C285" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E285" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -7571,13 +7577,13 @@
         <v>27</v>
       </c>
       <c r="B286" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C286" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E286" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -7585,13 +7591,13 @@
         <v>27</v>
       </c>
       <c r="B287" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C287" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E287" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -7599,13 +7605,13 @@
         <v>27</v>
       </c>
       <c r="B288" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C288" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E288" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -7613,13 +7619,13 @@
         <v>27</v>
       </c>
       <c r="B289" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C289" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E289" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -7627,13 +7633,13 @@
         <v>27</v>
       </c>
       <c r="B290" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C290" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E290" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -7641,13 +7647,13 @@
         <v>27</v>
       </c>
       <c r="B291" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C291" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E291" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -7655,13 +7661,13 @@
         <v>27</v>
       </c>
       <c r="B292" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C292" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E292" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -7669,13 +7675,13 @@
         <v>27</v>
       </c>
       <c r="B293" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C293" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E293" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -7683,13 +7689,13 @@
         <v>27</v>
       </c>
       <c r="B294" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C294" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E294" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -7697,13 +7703,13 @@
         <v>27</v>
       </c>
       <c r="B295" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C295" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E295" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -7711,13 +7717,13 @@
         <v>27</v>
       </c>
       <c r="B296" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C296" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E296" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -7725,13 +7731,13 @@
         <v>27</v>
       </c>
       <c r="B297" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C297" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E297" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -7739,13 +7745,13 @@
         <v>27</v>
       </c>
       <c r="B298" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C298" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E298" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -7753,13 +7759,13 @@
         <v>27</v>
       </c>
       <c r="B299" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C299" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E299" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -7767,13 +7773,13 @@
         <v>27</v>
       </c>
       <c r="B300" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C300" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E300" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -7781,13 +7787,13 @@
         <v>27</v>
       </c>
       <c r="B301" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C301" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E301" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -7795,13 +7801,13 @@
         <v>27</v>
       </c>
       <c r="B302" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C302" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E302" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7809,13 +7815,13 @@
         <v>27</v>
       </c>
       <c r="B303" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C303" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E303" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -7823,13 +7829,13 @@
         <v>27</v>
       </c>
       <c r="B304" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C304" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E304" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -7837,13 +7843,13 @@
         <v>27</v>
       </c>
       <c r="B305" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C305" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E305" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -7851,13 +7857,13 @@
         <v>27</v>
       </c>
       <c r="B306" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C306" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E306" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7865,13 +7871,13 @@
         <v>27</v>
       </c>
       <c r="B307" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C307" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E307" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -7879,13 +7885,13 @@
         <v>27</v>
       </c>
       <c r="B308" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C308" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E308" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7893,13 +7899,13 @@
         <v>27</v>
       </c>
       <c r="B309" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C309" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E309" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -7907,13 +7913,13 @@
         <v>27</v>
       </c>
       <c r="B310" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C310" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E310" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -7921,13 +7927,13 @@
         <v>27</v>
       </c>
       <c r="B311" t="s">
-        <v>224</v>
+        <v>459</v>
       </c>
       <c r="C311" t="s">
-        <v>224</v>
+        <v>459</v>
       </c>
       <c r="E311" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7935,13 +7941,13 @@
         <v>27</v>
       </c>
       <c r="B312" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C312" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E312" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7949,13 +7955,13 @@
         <v>27</v>
       </c>
       <c r="B313" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C313" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E313" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7963,13 +7969,13 @@
         <v>27</v>
       </c>
       <c r="B314" t="s">
-        <v>468</v>
+        <v>220</v>
       </c>
       <c r="C314" t="s">
-        <v>468</v>
+        <v>220</v>
       </c>
       <c r="E314" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -7977,13 +7983,13 @@
         <v>27</v>
       </c>
       <c r="B315" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C315" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E315" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -7991,13 +7997,13 @@
         <v>27</v>
       </c>
       <c r="B316" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C316" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E316" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -8005,13 +8011,13 @@
         <v>27</v>
       </c>
       <c r="B317" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C317" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E317" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -8019,13 +8025,13 @@
         <v>27</v>
       </c>
       <c r="B318" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C318" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E318" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -8033,13 +8039,13 @@
         <v>27</v>
       </c>
       <c r="B319" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C319" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E319" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -8047,13 +8053,13 @@
         <v>27</v>
       </c>
       <c r="B320" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C320" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E320" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -8061,13 +8067,13 @@
         <v>27</v>
       </c>
       <c r="B321" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C321" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E321" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -8075,13 +8081,13 @@
         <v>27</v>
       </c>
       <c r="B322" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C322" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E322" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -8089,13 +8095,13 @@
         <v>27</v>
       </c>
       <c r="B323" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C323" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E323" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -8103,13 +8109,13 @@
         <v>27</v>
       </c>
       <c r="B324" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C324" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E324" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -8117,13 +8123,13 @@
         <v>27</v>
       </c>
       <c r="B325" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C325" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E325" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -8131,13 +8137,13 @@
         <v>27</v>
       </c>
       <c r="B326" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C326" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E326" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -8145,13 +8151,13 @@
         <v>27</v>
       </c>
       <c r="B327" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C327" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E327" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -8159,13 +8165,13 @@
         <v>27</v>
       </c>
       <c r="B328" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C328" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E328" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -8173,13 +8179,13 @@
         <v>27</v>
       </c>
       <c r="B329" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C329" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E329" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -8187,13 +8193,13 @@
         <v>27</v>
       </c>
       <c r="B330" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C330" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E330" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -8201,13 +8207,13 @@
         <v>27</v>
       </c>
       <c r="B331" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C331" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E331" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -8215,13 +8221,13 @@
         <v>27</v>
       </c>
       <c r="B332" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C332" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E332" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -8229,13 +8235,13 @@
         <v>27</v>
       </c>
       <c r="B333" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C333" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E333" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -8243,13 +8249,13 @@
         <v>27</v>
       </c>
       <c r="B334" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C334" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E334" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -8257,13 +8263,13 @@
         <v>27</v>
       </c>
       <c r="B335" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C335" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E335" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -8271,13 +8277,13 @@
         <v>27</v>
       </c>
       <c r="B336" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C336" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="E336" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -8285,13 +8291,13 @@
         <v>27</v>
       </c>
       <c r="B337" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C337" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E337" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -8299,13 +8305,13 @@
         <v>27</v>
       </c>
       <c r="B338" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C338" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="E338" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -8313,13 +8319,13 @@
         <v>27</v>
       </c>
       <c r="B339" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C339" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="E339" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -8327,13 +8333,13 @@
         <v>27</v>
       </c>
       <c r="B340" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C340" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E340" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -8341,13 +8347,13 @@
         <v>27</v>
       </c>
       <c r="B341" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C341" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E341" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -8355,13 +8361,13 @@
         <v>27</v>
       </c>
       <c r="B342" t="s">
-        <v>211</v>
+        <v>489</v>
       </c>
       <c r="C342" t="s">
-        <v>211</v>
+        <v>489</v>
       </c>
       <c r="E342" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -8369,13 +8375,13 @@
         <v>27</v>
       </c>
       <c r="B343" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C343" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E343" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -8383,13 +8389,13 @@
         <v>27</v>
       </c>
       <c r="B344" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C344" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E344" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -8397,13 +8403,13 @@
         <v>27</v>
       </c>
       <c r="B345" t="s">
-        <v>498</v>
+        <v>207</v>
       </c>
       <c r="C345" t="s">
-        <v>498</v>
+        <v>207</v>
       </c>
       <c r="E345" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -8411,13 +8417,13 @@
         <v>27</v>
       </c>
       <c r="B346" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C346" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E346" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -8425,13 +8431,13 @@
         <v>27</v>
       </c>
       <c r="B347" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C347" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="E347" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -8439,13 +8445,13 @@
         <v>27</v>
       </c>
       <c r="B348" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C348" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E348" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -8453,13 +8459,13 @@
         <v>27</v>
       </c>
       <c r="B349" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C349" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E349" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -8467,13 +8473,13 @@
         <v>27</v>
       </c>
       <c r="B350" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C350" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E350" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -8481,13 +8487,13 @@
         <v>27</v>
       </c>
       <c r="B351" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C351" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E351" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -8495,13 +8501,13 @@
         <v>27</v>
       </c>
       <c r="B352" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C352" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E352" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -8509,13 +8515,13 @@
         <v>27</v>
       </c>
       <c r="B353" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C353" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="E353" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -8523,13 +8529,13 @@
         <v>27</v>
       </c>
       <c r="B354" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C354" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E354" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -8537,13 +8543,13 @@
         <v>27</v>
       </c>
       <c r="B355" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C355" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E355" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -8551,13 +8557,13 @@
         <v>27</v>
       </c>
       <c r="B356" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C356" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E356" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -8565,13 +8571,13 @@
         <v>27</v>
       </c>
       <c r="B357" t="s">
-        <v>195</v>
+        <v>503</v>
       </c>
       <c r="C357" t="s">
-        <v>195</v>
+        <v>503</v>
       </c>
       <c r="E357" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -8579,13 +8585,13 @@
         <v>27</v>
       </c>
       <c r="B358" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C358" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E358" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -8593,13 +8599,13 @@
         <v>27</v>
       </c>
       <c r="B359" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C359" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E359" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -8607,13 +8613,13 @@
         <v>27</v>
       </c>
       <c r="B360" t="s">
-        <v>512</v>
+        <v>191</v>
       </c>
       <c r="C360" t="s">
-        <v>512</v>
+        <v>191</v>
       </c>
       <c r="E360" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -8621,13 +8627,13 @@
         <v>27</v>
       </c>
       <c r="B361" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C361" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E361" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -8635,13 +8641,13 @@
         <v>27</v>
       </c>
       <c r="B362" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C362" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E362" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -8649,13 +8655,13 @@
         <v>27</v>
       </c>
       <c r="B363" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C363" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E363" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -8663,13 +8669,13 @@
         <v>27</v>
       </c>
       <c r="B364" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C364" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E364" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -8677,13 +8683,13 @@
         <v>27</v>
       </c>
       <c r="B365" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C365" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E365" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -8691,13 +8697,13 @@
         <v>27</v>
       </c>
       <c r="B366" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C366" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E366" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -8705,13 +8711,13 @@
         <v>27</v>
       </c>
       <c r="B367" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C367" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E367" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -8719,13 +8725,13 @@
         <v>27</v>
       </c>
       <c r="B368" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C368" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E368" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -8733,13 +8739,13 @@
         <v>27</v>
       </c>
       <c r="B369" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C369" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E369" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -8747,13 +8753,13 @@
         <v>27</v>
       </c>
       <c r="B370" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C370" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E370" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -8761,13 +8767,13 @@
         <v>27</v>
       </c>
       <c r="B371" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C371" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E371" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -8775,13 +8781,13 @@
         <v>27</v>
       </c>
       <c r="B372" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C372" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E372" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -8789,13 +8795,13 @@
         <v>27</v>
       </c>
       <c r="B373" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C373" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E373" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -8803,13 +8809,13 @@
         <v>27</v>
       </c>
       <c r="B374" t="s">
-        <v>225</v>
+        <v>519</v>
       </c>
       <c r="C374" t="s">
-        <v>225</v>
+        <v>519</v>
       </c>
       <c r="E374" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -8817,13 +8823,13 @@
         <v>27</v>
       </c>
       <c r="B375" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C375" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E375" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -8831,13 +8837,13 @@
         <v>27</v>
       </c>
       <c r="B376" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C376" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E376" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -8845,18 +8851,60 @@
         <v>27</v>
       </c>
       <c r="B377" t="s">
-        <v>528</v>
+        <v>221</v>
       </c>
       <c r="C377" t="s">
-        <v>528</v>
+        <v>221</v>
       </c>
       <c r="E377" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>27</v>
+      </c>
+      <c r="B378" t="s">
+        <v>522</v>
+      </c>
+      <c r="C378" t="s">
+        <v>522</v>
+      </c>
+      <c r="E378" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>27</v>
+      </c>
+      <c r="B379" t="s">
+        <v>523</v>
+      </c>
+      <c r="C379" t="s">
+        <v>523</v>
+      </c>
+      <c r="E379" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>27</v>
+      </c>
+      <c r="B380" t="s">
+        <v>524</v>
+      </c>
+      <c r="C380" t="s">
+        <v>524</v>
+      </c>
+      <c r="E380" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A70:B80">
-    <sortCondition ref="B70:B80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A73:B83">
+    <sortCondition ref="B73:B83"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8893,10 +8941,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>

--- a/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_4_202306_symptomes.xlsx
+++ b/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_4_202306_symptomes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D858184-2513-4426-B578-E5C30031877C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D510C81F-7950-4575-A81E-B4FB6CA8486F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -361,12 +361,6 @@
     <t>SYMPTOMES</t>
   </si>
   <si>
-    <t>bj_oncho_stop_4_202306_symptomes</t>
-  </si>
-  <si>
-    <t>(2023 Juillet) ONCHO Stop TDM - 4. Symptôme &amp; Examens physiques</t>
-  </si>
-  <si>
     <t>s_RecorderID</t>
   </si>
   <si>
@@ -1646,6 +1640,12 @@
   </si>
   <si>
     <t>Si oui, sur quelles parties du corps se trouvent les boutons ? (Cocher les cases appropriées) :</t>
+  </si>
+  <si>
+    <t>(2023 Juillet) ONCHO Stop TDM - 4. Symptôme &amp; Examens physiques V2</t>
+  </si>
+  <si>
+    <t>bj_oncho_stop_4_202306_symptomes_v2</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1769,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1784,7 +1784,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1793,14 +1793,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1817,19 +1814,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1839,31 +1823,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1872,7 +1841,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2172,11 +2141,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2238,16 +2207,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="9" t="s">
@@ -2263,17 +2232,17 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -2285,41 +2254,41 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="8"/>
       <c r="I4" s="10"/>
       <c r="J4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="10"/>
-      <c r="L4" s="11" t="s">
-        <v>111</v>
+      <c r="L4" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="9"/>
       <c r="H5" s="6"/>
       <c r="I5" s="10"/>
@@ -2327,16 +2296,16 @@
         <v>23</v>
       </c>
       <c r="K5" s="10"/>
-      <c r="L5" s="11" t="s">
-        <v>113</v>
+      <c r="L5" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>114</v>
+      <c r="B6" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>37</v>
@@ -2344,7 +2313,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="6" t="s">
@@ -2357,8 +2326,8 @@
       <c r="A7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>116</v>
+      <c r="B7" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>102</v>
@@ -2366,9 +2335,9 @@
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="28" t="s">
-        <v>115</v>
+      <c r="G7" s="12"/>
+      <c r="H7" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="6" t="s">
@@ -2381,8 +2350,8 @@
       <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>117</v>
+      <c r="B8" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>47</v>
@@ -2390,9 +2359,9 @@
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="28" t="s">
-        <v>118</v>
+      <c r="G8" s="12"/>
+      <c r="H8" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="6" t="s">
@@ -2405,8 +2374,8 @@
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>119</v>
+      <c r="B9" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>47</v>
@@ -2414,9 +2383,9 @@
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="28" t="s">
-        <v>120</v>
+      <c r="G9" s="12"/>
+      <c r="H9" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="6" t="s">
@@ -2426,33 +2395,33 @@
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>122</v>
+      <c r="B11" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>48</v>
@@ -2460,9 +2429,9 @@
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="28" t="s">
-        <v>115</v>
+      <c r="G11" s="12"/>
+      <c r="H11" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="6" t="s">
@@ -2475,8 +2444,8 @@
       <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>123</v>
+      <c r="B12" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>49</v>
@@ -2484,9 +2453,9 @@
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="28" t="s">
-        <v>124</v>
+      <c r="G12" s="12"/>
+      <c r="H12" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="6" t="s">
@@ -2495,12 +2464,12 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>125</v>
+      <c r="B13" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>56</v>
@@ -2508,9 +2477,9 @@
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="28" t="s">
-        <v>124</v>
+      <c r="G13" s="12"/>
+      <c r="H13" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="6" t="s">
@@ -2519,12 +2488,12 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>126</v>
+      <c r="B14" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>57</v>
@@ -2532,9 +2501,9 @@
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="28" t="s">
-        <v>124</v>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="6" t="s">
@@ -2547,8 +2516,8 @@
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>127</v>
+      <c r="B15" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>58</v>
@@ -2556,9 +2525,9 @@
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="28" t="s">
-        <v>115</v>
+      <c r="G15" s="12"/>
+      <c r="H15" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="6" t="s">
@@ -2571,8 +2540,8 @@
       <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>128</v>
+      <c r="B16" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>59</v>
@@ -2580,9 +2549,9 @@
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="28" t="s">
-        <v>115</v>
+      <c r="G16" s="12"/>
+      <c r="H16" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="6" t="s">
@@ -2595,8 +2564,8 @@
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>129</v>
+      <c r="B17" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>60</v>
@@ -2604,9 +2573,9 @@
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="28" t="s">
-        <v>130</v>
+      <c r="G17" s="12"/>
+      <c r="H17" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="6" t="s">
@@ -2619,8 +2588,8 @@
       <c r="A18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>131</v>
+      <c r="B18" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>61</v>
@@ -2628,9 +2597,9 @@
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="28" t="s">
-        <v>115</v>
+      <c r="G18" s="12"/>
+      <c r="H18" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="6" t="s">
@@ -2640,33 +2609,33 @@
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="36" t="s">
+      <c r="B19" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>133</v>
+      <c r="B20" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>62</v>
@@ -2674,60 +2643,60 @@
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25" t="s">
+      <c r="G20" s="12"/>
+      <c r="H20" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>134</v>
+      <c r="B21" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>136</v>
+      <c r="B22" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25" t="s">
+      <c r="G22" s="12"/>
+      <c r="H22" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="10"/>
@@ -2737,8 +2706,8 @@
       <c r="A23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>138</v>
+      <c r="B23" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>73</v>
@@ -2746,9 +2715,9 @@
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="28" t="s">
-        <v>115</v>
+      <c r="G23" s="12"/>
+      <c r="H23" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="6" t="s">
@@ -2761,18 +2730,18 @@
       <c r="A24" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>139</v>
+      <c r="B24" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="28" t="s">
-        <v>140</v>
+      <c r="G24" s="12"/>
+      <c r="H24" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="6" t="s">
@@ -2785,8 +2754,8 @@
       <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>141</v>
+      <c r="B25" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>74</v>
@@ -2794,9 +2763,9 @@
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="28" t="s">
-        <v>142</v>
+      <c r="G25" s="12"/>
+      <c r="H25" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="6" t="s">
@@ -2806,11 +2775,11 @@
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>143</v>
+      <c r="A26" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>75</v>
@@ -2818,47 +2787,47 @@
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25" t="s">
+      <c r="G26" s="12"/>
+      <c r="H26" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>144</v>
+      <c r="B27" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25" t="s">
+      <c r="G27" s="12"/>
+      <c r="H27" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>146</v>
+      <c r="B28" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>76</v>
@@ -2866,12 +2835,12 @@
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25" t="s">
+      <c r="G28" s="12"/>
+      <c r="H28" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K28" s="10"/>
@@ -2881,8 +2850,8 @@
       <c r="A29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>148</v>
+      <c r="B29" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>77</v>
@@ -2890,9 +2859,9 @@
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="28" t="s">
-        <v>115</v>
+      <c r="G29" s="12"/>
+      <c r="H29" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="6" t="s">
@@ -2905,8 +2874,8 @@
       <c r="A30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>149</v>
+      <c r="B30" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>78</v>
@@ -2914,9 +2883,9 @@
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="28" t="s">
-        <v>150</v>
+      <c r="G30" s="12"/>
+      <c r="H30" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="6" t="s">
@@ -2929,8 +2898,8 @@
       <c r="A31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>151</v>
+      <c r="B31" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>79</v>
@@ -2938,9 +2907,9 @@
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="28" t="s">
-        <v>152</v>
+      <c r="G31" s="12"/>
+      <c r="H31" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="6" t="s">
@@ -2950,11 +2919,11 @@
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>153</v>
+      <c r="B32" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>80</v>
@@ -2962,23 +2931,23 @@
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25" t="s">
+      <c r="G32" s="12"/>
+      <c r="H32" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>154</v>
+      <c r="B33" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>81</v>
@@ -2986,23 +2955,23 @@
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="J33" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>156</v>
+      <c r="B34" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>82</v>
@@ -3010,12 +2979,12 @@
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25" t="s">
+      <c r="G34" s="12"/>
+      <c r="H34" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K34" s="10"/>
@@ -3025,20 +2994,20 @@
       <c r="A35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>158</v>
+      <c r="B35" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="20" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="28" t="s">
-        <v>115</v>
+      <c r="G35" s="12"/>
+      <c r="H35" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="6" t="s">
@@ -3051,8 +3020,8 @@
       <c r="A36" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>159</v>
+      <c r="B36" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>78</v>
@@ -3060,9 +3029,9 @@
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="28" t="s">
-        <v>160</v>
+      <c r="G36" s="12"/>
+      <c r="H36" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="6" t="s">
@@ -3075,8 +3044,8 @@
       <c r="A37" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>161</v>
+      <c r="B37" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>85</v>
@@ -3084,9 +3053,9 @@
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="28" t="s">
-        <v>162</v>
+      <c r="G37" s="12"/>
+      <c r="H37" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="6" t="s">
@@ -3096,37 +3065,37 @@
       <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>163</v>
+      <c r="B38" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="20" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="25" t="s">
+      <c r="G38" s="12"/>
+      <c r="H38" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>164</v>
+      <c r="B39" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>81</v>
@@ -3134,23 +3103,23 @@
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="25" t="s">
+      <c r="G39" s="12"/>
+      <c r="H39" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="23" t="s">
-        <v>166</v>
+      <c r="B40" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>87</v>
@@ -3158,12 +3127,12 @@
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="25" t="s">
+      <c r="G40" s="12"/>
+      <c r="H40" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K40" s="10"/>
@@ -3173,20 +3142,20 @@
       <c r="A41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>168</v>
+      <c r="B41" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="28" t="s">
-        <v>160</v>
+      <c r="G41" s="12"/>
+      <c r="H41" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="6" t="s">
@@ -3196,11 +3165,11 @@
       <c r="L41" s="10"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="23" t="s">
-        <v>169</v>
+      <c r="B42" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>90</v>
@@ -3208,23 +3177,23 @@
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="25" t="s">
+      <c r="G42" s="12"/>
+      <c r="H42" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>170</v>
+      <c r="B43" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>96</v>
@@ -3232,23 +3201,23 @@
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="25" t="s">
+      <c r="G43" s="12"/>
+      <c r="H43" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" s="18"/>
+      <c r="J43" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>172</v>
+      <c r="B44" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>94</v>
@@ -3256,23 +3225,23 @@
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="25" t="s">
+      <c r="G44" s="12"/>
+      <c r="H44" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>174</v>
+      <c r="B45" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>91</v>
@@ -3280,9 +3249,9 @@
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="28" t="s">
-        <v>115</v>
+      <c r="G45" s="12"/>
+      <c r="H45" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="6" t="s">
@@ -3292,11 +3261,11 @@
       <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="30" t="s">
-        <v>175</v>
+      <c r="B46" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>97</v>
@@ -3304,23 +3273,23 @@
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="I46" s="32"/>
-      <c r="J46" s="33" t="s">
+      <c r="G46" s="12"/>
+      <c r="H46" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
     </row>
     <row r="47" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>177</v>
+      <c r="B47" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>95</v>
@@ -3328,23 +3297,23 @@
       <c r="D47" s="9"/>
       <c r="E47" s="10"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="33" t="s">
+      <c r="G47" s="12"/>
+      <c r="H47" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>179</v>
+      <c r="B48" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>92</v>
@@ -3352,9 +3321,9 @@
       <c r="D48" s="9"/>
       <c r="E48" s="10"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="28" t="s">
-        <v>115</v>
+      <c r="G48" s="12"/>
+      <c r="H48" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="6" t="s">
@@ -3364,11 +3333,11 @@
       <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>180</v>
+      <c r="B49" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>98</v>
@@ -3376,23 +3345,23 @@
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25" t="s">
+      <c r="G49" s="12"/>
+      <c r="H49" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I49" s="18"/>
+      <c r="J49" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
     </row>
     <row r="50" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>182</v>
+      <c r="B50" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>94</v>
@@ -3400,12 +3369,12 @@
       <c r="D50" s="9"/>
       <c r="E50" s="10"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="I50" s="24"/>
-      <c r="J50" s="25" t="s">
+      <c r="G50" s="12"/>
+      <c r="H50" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="I50" s="18"/>
+      <c r="J50" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K50" s="10"/>
@@ -3415,8 +3384,8 @@
       <c r="A51" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>184</v>
+      <c r="B51" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>93</v>
@@ -3424,7 +3393,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="10"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="13"/>
+      <c r="G51" s="12"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="6"/>
@@ -3433,12 +3402,12 @@
     </row>
     <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
-      <c r="B52" s="16"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="10"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="13"/>
+      <c r="G52" s="12"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="6"/>
@@ -3449,14 +3418,14 @@
       <c r="A53" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
+      <c r="B53" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="15"/>
+      <c r="G53" s="14"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="6"/>
@@ -3467,14 +3436,14 @@
       <c r="A54" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="B54" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="15"/>
+      <c r="G54" s="14"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="6"/>
@@ -3538,1070 +3507,1070 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C30" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C31" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C32" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C34" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="D34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C35" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="D35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C36" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="E47" s="1"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="20" t="s">
+      <c r="B48" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="E48" s="1"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="20" t="s">
+      <c r="B49" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="C49" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B50" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="E50" s="1"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="E51" s="1"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="E52" s="1"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="B53" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="B54" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="B55" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="B56" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-    </row>
-    <row r="43" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="B57" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="20" t="s">
+      <c r="B58" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="E58" s="1"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B59" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="E59" s="1"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="19"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="E60" s="1"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="19"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="B61" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="B62" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" s="20" t="s">
+      <c r="B63" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="19"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="E63" s="1"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D48" s="20" t="s">
+      <c r="B64" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="19"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="E64" s="1"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B65" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="E65" s="1"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="C66" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="19"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="D66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D50" s="20" t="s">
+      <c r="B67" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="19"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="11" t="s">
+      <c r="E67" s="1"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D51" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="19"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="19"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="19"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="19"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="19"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="19"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="19"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="19"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="19"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="19"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="19"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="19"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="19"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="19"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="19"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="11" t="s">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C71" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="F69" s="19"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="11" t="s">
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C72" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="F70" s="19"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="F71" s="19"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="19"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C73" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E73" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4609,13 +4578,13 @@
         <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4623,13 +4592,13 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E75" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4637,13 +4606,13 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C76" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E76" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4651,13 +4620,13 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C77" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E77" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4665,13 +4634,13 @@
         <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4679,13 +4648,13 @@
         <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C79" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4693,13 +4662,13 @@
         <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C80" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E80" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4707,13 +4676,13 @@
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C81" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E81" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4721,13 +4690,13 @@
         <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E82" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4735,13 +4704,13 @@
         <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E83" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4749,13 +4718,13 @@
         <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E84" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4763,13 +4732,13 @@
         <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C85" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E85" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4777,13 +4746,13 @@
         <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C86" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E86" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4791,13 +4760,13 @@
         <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C87" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E87" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4805,13 +4774,13 @@
         <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C88" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E88" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4819,13 +4788,13 @@
         <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C89" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E89" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4833,13 +4802,13 @@
         <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C90" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E90" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4847,13 +4816,13 @@
         <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C91" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E91" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4861,13 +4830,13 @@
         <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C92" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E92" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4875,13 +4844,13 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C93" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E93" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4889,13 +4858,13 @@
         <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C94" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E94" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4903,13 +4872,13 @@
         <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C95" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E95" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4917,13 +4886,13 @@
         <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C96" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E96" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4931,13 +4900,13 @@
         <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C97" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E97" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4945,13 +4914,13 @@
         <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C98" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E98" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4959,13 +4928,13 @@
         <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E99" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4973,13 +4942,13 @@
         <v>27</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C100" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4987,13 +4956,13 @@
         <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C101" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -5001,13 +4970,13 @@
         <v>27</v>
       </c>
       <c r="B102" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C102" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E102" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -5015,13 +4984,13 @@
         <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C103" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E103" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -5029,13 +4998,13 @@
         <v>27</v>
       </c>
       <c r="B104" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E104" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -5043,13 +5012,13 @@
         <v>27</v>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C105" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E105" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -5057,13 +5026,13 @@
         <v>27</v>
       </c>
       <c r="B106" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E106" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5071,13 +5040,13 @@
         <v>27</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C107" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E107" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5085,13 +5054,13 @@
         <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C108" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -5099,13 +5068,13 @@
         <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C109" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5113,13 +5082,13 @@
         <v>27</v>
       </c>
       <c r="B110" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5127,13 +5096,13 @@
         <v>27</v>
       </c>
       <c r="B111" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5141,13 +5110,13 @@
         <v>27</v>
       </c>
       <c r="B112" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C112" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E112" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5155,13 +5124,13 @@
         <v>27</v>
       </c>
       <c r="B113" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C113" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E113" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -5169,13 +5138,13 @@
         <v>27</v>
       </c>
       <c r="B114" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C114" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E114" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5183,13 +5152,13 @@
         <v>27</v>
       </c>
       <c r="B115" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C115" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E115" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5197,13 +5166,13 @@
         <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C116" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E116" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5211,13 +5180,13 @@
         <v>27</v>
       </c>
       <c r="B117" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C117" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E117" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5225,13 +5194,13 @@
         <v>27</v>
       </c>
       <c r="B118" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C118" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E118" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -5239,13 +5208,13 @@
         <v>27</v>
       </c>
       <c r="B119" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C119" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E119" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5253,13 +5222,13 @@
         <v>27</v>
       </c>
       <c r="B120" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C120" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E120" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5267,13 +5236,13 @@
         <v>27</v>
       </c>
       <c r="B121" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C121" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E121" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5281,13 +5250,13 @@
         <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C122" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E122" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5295,13 +5264,13 @@
         <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C123" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E123" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -5309,13 +5278,13 @@
         <v>27</v>
       </c>
       <c r="B124" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C124" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E124" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -5323,13 +5292,13 @@
         <v>27</v>
       </c>
       <c r="B125" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C125" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5337,13 +5306,13 @@
         <v>27</v>
       </c>
       <c r="B126" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C126" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E126" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -5351,13 +5320,13 @@
         <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C127" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E127" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -5365,13 +5334,13 @@
         <v>27</v>
       </c>
       <c r="B128" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C128" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E128" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5379,13 +5348,13 @@
         <v>27</v>
       </c>
       <c r="B129" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C129" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E129" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -5393,13 +5362,13 @@
         <v>27</v>
       </c>
       <c r="B130" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C130" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E130" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -5407,13 +5376,13 @@
         <v>27</v>
       </c>
       <c r="B131" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C131" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E131" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -5421,13 +5390,13 @@
         <v>27</v>
       </c>
       <c r="B132" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C132" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E132" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -5435,13 +5404,13 @@
         <v>27</v>
       </c>
       <c r="B133" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C133" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E133" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -5449,13 +5418,13 @@
         <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C134" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E134" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -5463,13 +5432,13 @@
         <v>27</v>
       </c>
       <c r="B135" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C135" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E135" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -5477,13 +5446,13 @@
         <v>27</v>
       </c>
       <c r="B136" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C136" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E136" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -5491,13 +5460,13 @@
         <v>27</v>
       </c>
       <c r="B137" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C137" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E137" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5505,13 +5474,13 @@
         <v>27</v>
       </c>
       <c r="B138" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C138" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E138" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -5519,13 +5488,13 @@
         <v>27</v>
       </c>
       <c r="B139" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C139" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E139" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -5533,13 +5502,13 @@
         <v>27</v>
       </c>
       <c r="B140" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C140" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E140" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -5547,13 +5516,13 @@
         <v>27</v>
       </c>
       <c r="B141" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C141" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E141" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -5561,13 +5530,13 @@
         <v>27</v>
       </c>
       <c r="B142" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C142" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E142" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -5575,13 +5544,13 @@
         <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C143" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E143" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -5589,13 +5558,13 @@
         <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C144" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E144" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -5603,13 +5572,13 @@
         <v>27</v>
       </c>
       <c r="B145" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C145" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E145" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -5617,13 +5586,13 @@
         <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C146" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E146" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -5631,13 +5600,13 @@
         <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C147" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E147" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -5645,13 +5614,13 @@
         <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C148" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E148" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -5659,13 +5628,13 @@
         <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C149" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E149" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -5673,13 +5642,13 @@
         <v>27</v>
       </c>
       <c r="B150" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C150" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E150" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -5687,13 +5656,13 @@
         <v>27</v>
       </c>
       <c r="B151" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C151" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E151" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -5701,13 +5670,13 @@
         <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E152" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5715,13 +5684,13 @@
         <v>27</v>
       </c>
       <c r="B153" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C153" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E153" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -5729,13 +5698,13 @@
         <v>27</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E154" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5743,13 +5712,13 @@
         <v>27</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E155" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -5757,13 +5726,13 @@
         <v>27</v>
       </c>
       <c r="B156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E156" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5771,13 +5740,13 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C157" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E157" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5785,13 +5754,13 @@
         <v>27</v>
       </c>
       <c r="B158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E158" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5799,13 +5768,13 @@
         <v>27</v>
       </c>
       <c r="B159" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C159" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E159" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -5813,13 +5782,13 @@
         <v>27</v>
       </c>
       <c r="B160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E160" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5827,13 +5796,13 @@
         <v>27</v>
       </c>
       <c r="B161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E161" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -5841,13 +5810,13 @@
         <v>27</v>
       </c>
       <c r="B162" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C162" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E162" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5855,13 +5824,13 @@
         <v>27</v>
       </c>
       <c r="B163" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C163" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E163" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5869,13 +5838,13 @@
         <v>27</v>
       </c>
       <c r="B164" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C164" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E164" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5883,13 +5852,13 @@
         <v>27</v>
       </c>
       <c r="B165" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C165" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E165" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5897,13 +5866,13 @@
         <v>27</v>
       </c>
       <c r="B166" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C166" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E166" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -5911,13 +5880,13 @@
         <v>27</v>
       </c>
       <c r="B167" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C167" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E167" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5925,13 +5894,13 @@
         <v>27</v>
       </c>
       <c r="B168" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C168" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E168" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -5939,13 +5908,13 @@
         <v>27</v>
       </c>
       <c r="B169" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C169" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E169" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -5953,13 +5922,13 @@
         <v>27</v>
       </c>
       <c r="B170" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C170" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E170" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5967,13 +5936,13 @@
         <v>27</v>
       </c>
       <c r="B171" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C171" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E171" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -5981,13 +5950,13 @@
         <v>27</v>
       </c>
       <c r="B172" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C172" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E172" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -5995,13 +5964,13 @@
         <v>27</v>
       </c>
       <c r="B173" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C173" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E173" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -6009,13 +5978,13 @@
         <v>27</v>
       </c>
       <c r="B174" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C174" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E174" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -6023,13 +5992,13 @@
         <v>27</v>
       </c>
       <c r="B175" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C175" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E175" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -6037,13 +6006,13 @@
         <v>27</v>
       </c>
       <c r="B176" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C176" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E176" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -6051,13 +6020,13 @@
         <v>27</v>
       </c>
       <c r="B177" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C177" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E177" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -6065,13 +6034,13 @@
         <v>27</v>
       </c>
       <c r="B178" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C178" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E178" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -6079,13 +6048,13 @@
         <v>27</v>
       </c>
       <c r="B179" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C179" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E179" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -6093,13 +6062,13 @@
         <v>27</v>
       </c>
       <c r="B180" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C180" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E180" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -6107,13 +6076,13 @@
         <v>27</v>
       </c>
       <c r="B181" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C181" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E181" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -6121,13 +6090,13 @@
         <v>27</v>
       </c>
       <c r="B182" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C182" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E182" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -6135,13 +6104,13 @@
         <v>27</v>
       </c>
       <c r="B183" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C183" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E183" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -6149,13 +6118,13 @@
         <v>27</v>
       </c>
       <c r="B184" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C184" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E184" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -6163,13 +6132,13 @@
         <v>27</v>
       </c>
       <c r="B185" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C185" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E185" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -6177,13 +6146,13 @@
         <v>27</v>
       </c>
       <c r="B186" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C186" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E186" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -6191,13 +6160,13 @@
         <v>27</v>
       </c>
       <c r="B187" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C187" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E187" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -6205,13 +6174,13 @@
         <v>27</v>
       </c>
       <c r="B188" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C188" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E188" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -6219,13 +6188,13 @@
         <v>27</v>
       </c>
       <c r="B189" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C189" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E189" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -6233,13 +6202,13 @@
         <v>27</v>
       </c>
       <c r="B190" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C190" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E190" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -6247,13 +6216,13 @@
         <v>27</v>
       </c>
       <c r="B191" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C191" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E191" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -6261,13 +6230,13 @@
         <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C192" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E192" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -6275,13 +6244,13 @@
         <v>27</v>
       </c>
       <c r="B193" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C193" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E193" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -6289,13 +6258,13 @@
         <v>27</v>
       </c>
       <c r="B194" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C194" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E194" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -6303,13 +6272,13 @@
         <v>27</v>
       </c>
       <c r="B195" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C195" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E195" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -6317,13 +6286,13 @@
         <v>27</v>
       </c>
       <c r="B196" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C196" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E196" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -6331,13 +6300,13 @@
         <v>27</v>
       </c>
       <c r="B197" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C197" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E197" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -6345,13 +6314,13 @@
         <v>27</v>
       </c>
       <c r="B198" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C198" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E198" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -6359,13 +6328,13 @@
         <v>27</v>
       </c>
       <c r="B199" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C199" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E199" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -6373,13 +6342,13 @@
         <v>27</v>
       </c>
       <c r="B200" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C200" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E200" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -6387,13 +6356,13 @@
         <v>27</v>
       </c>
       <c r="B201" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C201" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E201" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -6401,13 +6370,13 @@
         <v>27</v>
       </c>
       <c r="B202" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C202" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E202" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -6415,13 +6384,13 @@
         <v>27</v>
       </c>
       <c r="B203" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C203" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E203" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -6429,13 +6398,13 @@
         <v>27</v>
       </c>
       <c r="B204" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C204" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E204" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -6443,13 +6412,13 @@
         <v>27</v>
       </c>
       <c r="B205" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C205" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E205" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -6457,13 +6426,13 @@
         <v>27</v>
       </c>
       <c r="B206" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C206" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E206" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -6471,13 +6440,13 @@
         <v>27</v>
       </c>
       <c r="B207" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C207" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E207" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -6485,13 +6454,13 @@
         <v>27</v>
       </c>
       <c r="B208" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C208" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E208" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -6499,13 +6468,13 @@
         <v>27</v>
       </c>
       <c r="B209" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C209" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E209" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -6513,13 +6482,13 @@
         <v>27</v>
       </c>
       <c r="B210" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C210" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E210" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -6527,13 +6496,13 @@
         <v>27</v>
       </c>
       <c r="B211" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C211" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E211" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -6541,13 +6510,13 @@
         <v>27</v>
       </c>
       <c r="B212" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C212" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E212" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -6555,13 +6524,13 @@
         <v>27</v>
       </c>
       <c r="B213" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C213" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E213" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -6569,13 +6538,13 @@
         <v>27</v>
       </c>
       <c r="B214" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C214" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E214" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -6583,13 +6552,13 @@
         <v>27</v>
       </c>
       <c r="B215" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C215" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E215" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -6597,13 +6566,13 @@
         <v>27</v>
       </c>
       <c r="B216" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C216" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E216" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -6611,13 +6580,13 @@
         <v>27</v>
       </c>
       <c r="B217" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C217" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E217" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -6625,13 +6594,13 @@
         <v>27</v>
       </c>
       <c r="B218" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C218" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E218" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -6639,13 +6608,13 @@
         <v>27</v>
       </c>
       <c r="B219" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C219" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E219" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -6653,13 +6622,13 @@
         <v>27</v>
       </c>
       <c r="B220" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C220" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E220" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -6667,13 +6636,13 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C221" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E221" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -6681,13 +6650,13 @@
         <v>27</v>
       </c>
       <c r="B222" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C222" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E222" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -6695,13 +6664,13 @@
         <v>27</v>
       </c>
       <c r="B223" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C223" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E223" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -6709,13 +6678,13 @@
         <v>27</v>
       </c>
       <c r="B224" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C224" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E224" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -6723,13 +6692,13 @@
         <v>27</v>
       </c>
       <c r="B225" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C225" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E225" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -6737,13 +6706,13 @@
         <v>27</v>
       </c>
       <c r="B226" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C226" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E226" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -6751,13 +6720,13 @@
         <v>27</v>
       </c>
       <c r="B227" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C227" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E227" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6765,13 +6734,13 @@
         <v>27</v>
       </c>
       <c r="B228" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C228" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E228" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6779,13 +6748,13 @@
         <v>27</v>
       </c>
       <c r="B229" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C229" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E229" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6793,13 +6762,13 @@
         <v>27</v>
       </c>
       <c r="B230" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C230" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E230" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -6807,13 +6776,13 @@
         <v>27</v>
       </c>
       <c r="B231" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C231" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E231" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6821,13 +6790,13 @@
         <v>27</v>
       </c>
       <c r="B232" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C232" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E232" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -6835,13 +6804,13 @@
         <v>27</v>
       </c>
       <c r="B233" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C233" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E233" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -6849,13 +6818,13 @@
         <v>27</v>
       </c>
       <c r="B234" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C234" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E234" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6863,13 +6832,13 @@
         <v>27</v>
       </c>
       <c r="B235" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C235" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E235" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -6877,13 +6846,13 @@
         <v>27</v>
       </c>
       <c r="B236" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C236" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E236" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6891,13 +6860,13 @@
         <v>27</v>
       </c>
       <c r="B237" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C237" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E237" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6905,13 +6874,13 @@
         <v>27</v>
       </c>
       <c r="B238" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C238" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E238" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6919,13 +6888,13 @@
         <v>27</v>
       </c>
       <c r="B239" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C239" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E239" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6933,13 +6902,13 @@
         <v>27</v>
       </c>
       <c r="B240" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C240" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E240" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -6947,13 +6916,13 @@
         <v>27</v>
       </c>
       <c r="B241" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C241" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E241" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6961,13 +6930,13 @@
         <v>27</v>
       </c>
       <c r="B242" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C242" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E242" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6975,13 +6944,13 @@
         <v>27</v>
       </c>
       <c r="B243" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C243" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E243" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6989,13 +6958,13 @@
         <v>27</v>
       </c>
       <c r="B244" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C244" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E244" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -7003,13 +6972,13 @@
         <v>27</v>
       </c>
       <c r="B245" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C245" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E245" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -7017,13 +6986,13 @@
         <v>27</v>
       </c>
       <c r="B246" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C246" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E246" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -7031,13 +7000,13 @@
         <v>27</v>
       </c>
       <c r="B247" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C247" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E247" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -7045,13 +7014,13 @@
         <v>27</v>
       </c>
       <c r="B248" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C248" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E248" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -7059,13 +7028,13 @@
         <v>27</v>
       </c>
       <c r="B249" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C249" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E249" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -7073,13 +7042,13 @@
         <v>27</v>
       </c>
       <c r="B250" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C250" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E250" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -7087,13 +7056,13 @@
         <v>27</v>
       </c>
       <c r="B251" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C251" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E251" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -7101,13 +7070,13 @@
         <v>27</v>
       </c>
       <c r="B252" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C252" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E252" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -7115,13 +7084,13 @@
         <v>27</v>
       </c>
       <c r="B253" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C253" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E253" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -7129,13 +7098,13 @@
         <v>27</v>
       </c>
       <c r="B254" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C254" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -7143,13 +7112,13 @@
         <v>27</v>
       </c>
       <c r="B255" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C255" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E255" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -7157,13 +7126,13 @@
         <v>27</v>
       </c>
       <c r="B256" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C256" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E256" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -7171,13 +7140,13 @@
         <v>27</v>
       </c>
       <c r="B257" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C257" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E257" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -7185,13 +7154,13 @@
         <v>27</v>
       </c>
       <c r="B258" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C258" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E258" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -7199,13 +7168,13 @@
         <v>27</v>
       </c>
       <c r="B259" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C259" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E259" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -7213,13 +7182,13 @@
         <v>27</v>
       </c>
       <c r="B260" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C260" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E260" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -7227,13 +7196,13 @@
         <v>27</v>
       </c>
       <c r="B261" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C261" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E261" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -7241,13 +7210,13 @@
         <v>27</v>
       </c>
       <c r="B262" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C262" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E262" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -7255,13 +7224,13 @@
         <v>27</v>
       </c>
       <c r="B263" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C263" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E263" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -7269,13 +7238,13 @@
         <v>27</v>
       </c>
       <c r="B264" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C264" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E264" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -7283,13 +7252,13 @@
         <v>27</v>
       </c>
       <c r="B265" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C265" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E265" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -7297,13 +7266,13 @@
         <v>27</v>
       </c>
       <c r="B266" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C266" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E266" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -7311,13 +7280,13 @@
         <v>27</v>
       </c>
       <c r="B267" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C267" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E267" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -7325,13 +7294,13 @@
         <v>27</v>
       </c>
       <c r="B268" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C268" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E268" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -7339,13 +7308,13 @@
         <v>27</v>
       </c>
       <c r="B269" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C269" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E269" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -7353,13 +7322,13 @@
         <v>27</v>
       </c>
       <c r="B270" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C270" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E270" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -7367,13 +7336,13 @@
         <v>27</v>
       </c>
       <c r="B271" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C271" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E271" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -7381,13 +7350,13 @@
         <v>27</v>
       </c>
       <c r="B272" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C272" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E272" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -7395,13 +7364,13 @@
         <v>27</v>
       </c>
       <c r="B273" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C273" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E273" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -7409,13 +7378,13 @@
         <v>27</v>
       </c>
       <c r="B274" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C274" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E274" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -7423,13 +7392,13 @@
         <v>27</v>
       </c>
       <c r="B275" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C275" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E275" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -7437,13 +7406,13 @@
         <v>27</v>
       </c>
       <c r="B276" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C276" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E276" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -7451,13 +7420,13 @@
         <v>27</v>
       </c>
       <c r="B277" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C277" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E277" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -7465,13 +7434,13 @@
         <v>27</v>
       </c>
       <c r="B278" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C278" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E278" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -7479,13 +7448,13 @@
         <v>27</v>
       </c>
       <c r="B279" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C279" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E279" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -7493,13 +7462,13 @@
         <v>27</v>
       </c>
       <c r="B280" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C280" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E280" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -7507,13 +7476,13 @@
         <v>27</v>
       </c>
       <c r="B281" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C281" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E281" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -7521,13 +7490,13 @@
         <v>27</v>
       </c>
       <c r="B282" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C282" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E282" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -7535,13 +7504,13 @@
         <v>27</v>
       </c>
       <c r="B283" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C283" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E283" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -7549,13 +7518,13 @@
         <v>27</v>
       </c>
       <c r="B284" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C284" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E284" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -7563,13 +7532,13 @@
         <v>27</v>
       </c>
       <c r="B285" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C285" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E285" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -7577,13 +7546,13 @@
         <v>27</v>
       </c>
       <c r="B286" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C286" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E286" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -7591,13 +7560,13 @@
         <v>27</v>
       </c>
       <c r="B287" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C287" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E287" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -7605,13 +7574,13 @@
         <v>27</v>
       </c>
       <c r="B288" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C288" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E288" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -7619,13 +7588,13 @@
         <v>27</v>
       </c>
       <c r="B289" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C289" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E289" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -7633,13 +7602,13 @@
         <v>27</v>
       </c>
       <c r="B290" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C290" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E290" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -7647,13 +7616,13 @@
         <v>27</v>
       </c>
       <c r="B291" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C291" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E291" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -7661,13 +7630,13 @@
         <v>27</v>
       </c>
       <c r="B292" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C292" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E292" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -7675,13 +7644,13 @@
         <v>27</v>
       </c>
       <c r="B293" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C293" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E293" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -7689,13 +7658,13 @@
         <v>27</v>
       </c>
       <c r="B294" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C294" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E294" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -7703,13 +7672,13 @@
         <v>27</v>
       </c>
       <c r="B295" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C295" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E295" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -7717,13 +7686,13 @@
         <v>27</v>
       </c>
       <c r="B296" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C296" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E296" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -7731,13 +7700,13 @@
         <v>27</v>
       </c>
       <c r="B297" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C297" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E297" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -7745,13 +7714,13 @@
         <v>27</v>
       </c>
       <c r="B298" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C298" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E298" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -7759,13 +7728,13 @@
         <v>27</v>
       </c>
       <c r="B299" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C299" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E299" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -7773,13 +7742,13 @@
         <v>27</v>
       </c>
       <c r="B300" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C300" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E300" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -7787,13 +7756,13 @@
         <v>27</v>
       </c>
       <c r="B301" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C301" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E301" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -7801,13 +7770,13 @@
         <v>27</v>
       </c>
       <c r="B302" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C302" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E302" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7815,13 +7784,13 @@
         <v>27</v>
       </c>
       <c r="B303" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C303" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E303" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -7829,13 +7798,13 @@
         <v>27</v>
       </c>
       <c r="B304" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C304" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E304" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -7843,13 +7812,13 @@
         <v>27</v>
       </c>
       <c r="B305" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C305" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E305" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -7857,13 +7826,13 @@
         <v>27</v>
       </c>
       <c r="B306" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C306" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E306" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7871,13 +7840,13 @@
         <v>27</v>
       </c>
       <c r="B307" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C307" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E307" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -7885,13 +7854,13 @@
         <v>27</v>
       </c>
       <c r="B308" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C308" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E308" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7899,13 +7868,13 @@
         <v>27</v>
       </c>
       <c r="B309" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C309" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E309" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -7913,13 +7882,13 @@
         <v>27</v>
       </c>
       <c r="B310" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C310" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E310" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -7927,13 +7896,13 @@
         <v>27</v>
       </c>
       <c r="B311" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C311" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E311" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7941,13 +7910,13 @@
         <v>27</v>
       </c>
       <c r="B312" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C312" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E312" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7955,13 +7924,13 @@
         <v>27</v>
       </c>
       <c r="B313" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C313" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E313" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7969,13 +7938,13 @@
         <v>27</v>
       </c>
       <c r="B314" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C314" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E314" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -7983,13 +7952,13 @@
         <v>27</v>
       </c>
       <c r="B315" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C315" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E315" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -7997,13 +7966,13 @@
         <v>27</v>
       </c>
       <c r="B316" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C316" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E316" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -8011,13 +7980,13 @@
         <v>27</v>
       </c>
       <c r="B317" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C317" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E317" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -8025,13 +7994,13 @@
         <v>27</v>
       </c>
       <c r="B318" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C318" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E318" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -8039,13 +8008,13 @@
         <v>27</v>
       </c>
       <c r="B319" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C319" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E319" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -8053,13 +8022,13 @@
         <v>27</v>
       </c>
       <c r="B320" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C320" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E320" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -8067,13 +8036,13 @@
         <v>27</v>
       </c>
       <c r="B321" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C321" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E321" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -8081,13 +8050,13 @@
         <v>27</v>
       </c>
       <c r="B322" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C322" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E322" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -8095,13 +8064,13 @@
         <v>27</v>
       </c>
       <c r="B323" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C323" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E323" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -8109,13 +8078,13 @@
         <v>27</v>
       </c>
       <c r="B324" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C324" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E324" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -8123,13 +8092,13 @@
         <v>27</v>
       </c>
       <c r="B325" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C325" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E325" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -8137,13 +8106,13 @@
         <v>27</v>
       </c>
       <c r="B326" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C326" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E326" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -8151,13 +8120,13 @@
         <v>27</v>
       </c>
       <c r="B327" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C327" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E327" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -8165,13 +8134,13 @@
         <v>27</v>
       </c>
       <c r="B328" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C328" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E328" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -8179,13 +8148,13 @@
         <v>27</v>
       </c>
       <c r="B329" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C329" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E329" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -8193,13 +8162,13 @@
         <v>27</v>
       </c>
       <c r="B330" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C330" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E330" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -8207,13 +8176,13 @@
         <v>27</v>
       </c>
       <c r="B331" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C331" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E331" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -8221,13 +8190,13 @@
         <v>27</v>
       </c>
       <c r="B332" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C332" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E332" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -8235,13 +8204,13 @@
         <v>27</v>
       </c>
       <c r="B333" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C333" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E333" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -8249,13 +8218,13 @@
         <v>27</v>
       </c>
       <c r="B334" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C334" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E334" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -8263,13 +8232,13 @@
         <v>27</v>
       </c>
       <c r="B335" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C335" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E335" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -8277,13 +8246,13 @@
         <v>27</v>
       </c>
       <c r="B336" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C336" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E336" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -8291,13 +8260,13 @@
         <v>27</v>
       </c>
       <c r="B337" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C337" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E337" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -8305,13 +8274,13 @@
         <v>27</v>
       </c>
       <c r="B338" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C338" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E338" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -8319,13 +8288,13 @@
         <v>27</v>
       </c>
       <c r="B339" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C339" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E339" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -8333,13 +8302,13 @@
         <v>27</v>
       </c>
       <c r="B340" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C340" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E340" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -8347,13 +8316,13 @@
         <v>27</v>
       </c>
       <c r="B341" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C341" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E341" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -8361,13 +8330,13 @@
         <v>27</v>
       </c>
       <c r="B342" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C342" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E342" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -8375,13 +8344,13 @@
         <v>27</v>
       </c>
       <c r="B343" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C343" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E343" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -8389,13 +8358,13 @@
         <v>27</v>
       </c>
       <c r="B344" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C344" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E344" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -8403,13 +8372,13 @@
         <v>27</v>
       </c>
       <c r="B345" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C345" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E345" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -8417,13 +8386,13 @@
         <v>27</v>
       </c>
       <c r="B346" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C346" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E346" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -8431,13 +8400,13 @@
         <v>27</v>
       </c>
       <c r="B347" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C347" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E347" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -8445,13 +8414,13 @@
         <v>27</v>
       </c>
       <c r="B348" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C348" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E348" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -8459,13 +8428,13 @@
         <v>27</v>
       </c>
       <c r="B349" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C349" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E349" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -8473,13 +8442,13 @@
         <v>27</v>
       </c>
       <c r="B350" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C350" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E350" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -8487,13 +8456,13 @@
         <v>27</v>
       </c>
       <c r="B351" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C351" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E351" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -8501,13 +8470,13 @@
         <v>27</v>
       </c>
       <c r="B352" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C352" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E352" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -8515,13 +8484,13 @@
         <v>27</v>
       </c>
       <c r="B353" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C353" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E353" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -8529,13 +8498,13 @@
         <v>27</v>
       </c>
       <c r="B354" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C354" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E354" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -8543,13 +8512,13 @@
         <v>27</v>
       </c>
       <c r="B355" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C355" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E355" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -8557,13 +8526,13 @@
         <v>27</v>
       </c>
       <c r="B356" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C356" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E356" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -8571,13 +8540,13 @@
         <v>27</v>
       </c>
       <c r="B357" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C357" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E357" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -8585,13 +8554,13 @@
         <v>27</v>
       </c>
       <c r="B358" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C358" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E358" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -8599,13 +8568,13 @@
         <v>27</v>
       </c>
       <c r="B359" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C359" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E359" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -8613,13 +8582,13 @@
         <v>27</v>
       </c>
       <c r="B360" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C360" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E360" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -8627,13 +8596,13 @@
         <v>27</v>
       </c>
       <c r="B361" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C361" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E361" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -8641,13 +8610,13 @@
         <v>27</v>
       </c>
       <c r="B362" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C362" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E362" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -8655,13 +8624,13 @@
         <v>27</v>
       </c>
       <c r="B363" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C363" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E363" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -8669,13 +8638,13 @@
         <v>27</v>
       </c>
       <c r="B364" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C364" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E364" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -8683,13 +8652,13 @@
         <v>27</v>
       </c>
       <c r="B365" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C365" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E365" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -8697,13 +8666,13 @@
         <v>27</v>
       </c>
       <c r="B366" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C366" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E366" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -8711,13 +8680,13 @@
         <v>27</v>
       </c>
       <c r="B367" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C367" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E367" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -8725,13 +8694,13 @@
         <v>27</v>
       </c>
       <c r="B368" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C368" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E368" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -8739,13 +8708,13 @@
         <v>27</v>
       </c>
       <c r="B369" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C369" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E369" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -8753,13 +8722,13 @@
         <v>27</v>
       </c>
       <c r="B370" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C370" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E370" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -8767,13 +8736,13 @@
         <v>27</v>
       </c>
       <c r="B371" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C371" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E371" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -8781,13 +8750,13 @@
         <v>27</v>
       </c>
       <c r="B372" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C372" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E372" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -8795,13 +8764,13 @@
         <v>27</v>
       </c>
       <c r="B373" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C373" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E373" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -8809,13 +8778,13 @@
         <v>27</v>
       </c>
       <c r="B374" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C374" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E374" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -8823,13 +8792,13 @@
         <v>27</v>
       </c>
       <c r="B375" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C375" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E375" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -8837,13 +8806,13 @@
         <v>27</v>
       </c>
       <c r="B376" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C376" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E376" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -8851,13 +8820,13 @@
         <v>27</v>
       </c>
       <c r="B377" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C377" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E377" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -8865,13 +8834,13 @@
         <v>27</v>
       </c>
       <c r="B378" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C378" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E378" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -8879,13 +8848,13 @@
         <v>27</v>
       </c>
       <c r="B379" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C379" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E379" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -8893,13 +8862,13 @@
         <v>27</v>
       </c>
       <c r="B380" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C380" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E380" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -8915,8 +8884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8941,10 +8910,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>533</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>534</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
